--- a/my-personal-backups/my-daily-files/OE_PMC_个人日报_黄子杰（2021年07月13日）.xlsx
+++ b/my-personal-backups/my-daily-files/OE_PMC_个人日报_黄子杰（2021年07月13日）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zagger/Dropbox/my-personal-backups/my-daily-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624B2669-F1A4-D74C-AFE7-2E6547B175BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9498E11-0505-C14E-9F0A-CBA79CCE74C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="2320" windowWidth="22280" windowHeight="11780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5860" yWindow="5680" windowWidth="22280" windowHeight="11780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日报（日期）" sheetId="1" r:id="rId1"/>
@@ -94,12 +94,12 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>100%（7h）
-1. bug:bug跟踪和解决：
+    <t>100%（8h）
+1. bug:bug跟踪和解决：24397,24406跟踪。
 2. 实习生各种问题解决和辅导，开发中遇到的技术问题和沟通问题，帮助解决。
-3.邓勇，模板分组，bug修改，自测完后增量补丁辅导打补丁。
-4.arm合并到x86分支，需要兼容的地方，完成兼容。
-5.5.3.0-dev融合版的新的bug，迁移到vpc中来。</t>
+3.邓勇，辅导翻译bug解决。
+4.arm合并到x86分支，需要兼容部分，根据需求过一遍。
+5.管理帐号添加部门关联定制项目需求会议参加，准备让邓勇完成这个任务。</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -458,25 +458,55 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -488,7 +518,79 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -500,15 +602,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,111 +626,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -948,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:K13"/>
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -966,62 +966,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="27" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="75"/>
       <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="4">
-        <v>44389</v>
+        <v>44390</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A4" s="31">
+      <c r="A4" s="62">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="16"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1034,21 +1034,21 @@
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="K5" s="9">
         <v>0</v>
@@ -1056,18 +1056,18 @@
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1079,296 +1079,283 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
       <c r="I7" s="12"/>
       <c r="J7" s="8"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
       <c r="I8" s="12"/>
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="2">
         <v>5</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="2">
         <v>6</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="9"/>
       <c r="J10" s="8"/>
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A12" s="33">
+      <c r="A12" s="64">
         <v>2</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15" t="s">
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="16"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
     </row>
     <row r="13" spans="1:14" ht="140" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28" t="s">
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:14" ht="29" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="30"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="2">
         <v>3</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="58"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
       <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="2">
         <v>5</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="46"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="2">
         <v>6</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A19" s="59">
+      <c r="A19" s="14">
         <v>3</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A20" s="60"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="67"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A21" s="59">
+      <c r="A21" s="14">
         <v>4</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A22" s="60"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" ht="27" customHeight="1">
       <c r="A23" s="3">
         <v>5</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="51"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D21:H22"/>
-    <mergeCell ref="D19:K20"/>
-    <mergeCell ref="I21:K22"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="B12:C18"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="E4:H4"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="E12:H12"/>
@@ -1385,11 +1372,24 @@
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="B12:C18"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D21:H22"/>
+    <mergeCell ref="D19:K20"/>
+    <mergeCell ref="I21:K22"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="B19:C20"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="4">
